--- a/biology/Botanique/Epilobium_lanceolatum/Epilobium_lanceolatum.xlsx
+++ b/biology/Botanique/Epilobium_lanceolatum/Epilobium_lanceolatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épilobe lancéolé, Epilobium lanceolatum, est une plante herbacée de la famille des onagracées.
 </t>
@@ -511,21 +523,92 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de 20 à 60 cm, dressée, simple ou peu rameuse, pubérulente, à souche tronquée, émettant des rosettes courtes à feuilles très étalées. La tige ne porte pas de lignes saillantes.
 Les feuilles inférieures sont opposées ; les feuilles supérieures sont alternes. Leur forme générale est oblongue-lancéolée, elles sont subobtuses, inégalement dentées, en coin à la base, portées sur un pétiole long de 4 à 8 mm, garnies à leur aisselle d'un petit rameau feuillé.
 Les fleurs sont d'abord blanches, puis roses, petites, penchées avant la floraison. Leurs sépales et boutons sont obtus. Elles portent 4 stigmates étalés. La capsule est pubérulente.
 On peut la trouver en Europe occidentale et méridionale, en Asie occidentale et en Afrique septentrionale.
-Caractéristiques
-Sexualité : hermaphrodite
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Epilobium_lanceolatum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epilobium_lanceolatum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sexualité : hermaphrodite
 Pollinisation : entomogame
 Fruit : capsule
 Dissémination : anémochore
 Type biologique : hémicryptophyte érigé
-Formation végétale : hémicryptophytale
-Pharmacopée
-C'est une plante utilisée en thérapeutique de la même façon que l'épilobe à petites fleurs (Epilobium parviflorum)[1].
+Formation végétale : hémicryptophytale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Epilobium_lanceolatum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epilobium_lanceolatum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante utilisée en thérapeutique de la même façon que l'épilobe à petites fleurs (Epilobium parviflorum).
 </t>
         </is>
       </c>
